--- a/研报-交易记录.xlsx
+++ b/研报-交易记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="10月研报" sheetId="5" r:id="rId1"/>
@@ -965,9 +965,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1032,10 +1032,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,9 +1047,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,36 +1062,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1107,22 +1078,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1130,16 +1085,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,6 +1123,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1162,15 +1138,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,19 +1203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,19 +1233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,13 +1263,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,79 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,13 +1371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,10 +1399,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1441,17 +1439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,15 +1460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1494,6 +1474,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1502,10 +1502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1514,133 +1514,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
@@ -2454,12 +2454,12 @@
         <v>99.39</v>
       </c>
       <c r="H3" s="21">
-        <f t="shared" ref="H3:H19" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H25" si="0">F3*G3</f>
         <v>1987.8</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J17" si="1">H3-C3*F3</f>
+        <f t="shared" ref="J3:J25" si="1">H3-C3*F3</f>
         <v>-12.2</v>
       </c>
       <c r="L3" s="26"/>
@@ -2639,7 +2639,7 @@
         <v>1175</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" ref="I9:I19" si="2">(G9-C9)/C9</f>
+        <f t="shared" ref="I9:I25" si="2">(G9-C9)/C9</f>
         <v>0.175</v>
       </c>
       <c r="J9" s="21">
@@ -2915,15 +2915,15 @@
         <v>127.8</v>
       </c>
       <c r="H17" s="23">
-        <f>F17*G17</f>
+        <f t="shared" si="0"/>
         <v>1278</v>
       </c>
       <c r="I17" s="27">
-        <f>(G17-C17)/C17</f>
+        <f t="shared" si="2"/>
         <v>0.278</v>
       </c>
       <c r="J17" s="23">
-        <f>H17-C17*F17</f>
+        <f t="shared" si="1"/>
         <v>278</v>
       </c>
     </row>
@@ -2950,15 +2950,15 @@
         <v>130</v>
       </c>
       <c r="H18" s="21">
-        <f>F18*G18</f>
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="I18" s="7">
-        <f>(G18-C18)/C18</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="J18" s="21">
-        <f>H18-C18*F18</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
@@ -2985,15 +2985,15 @@
         <v>107.52</v>
       </c>
       <c r="H19" s="21">
-        <f>F19*G19</f>
+        <f t="shared" si="0"/>
         <v>1075.2</v>
       </c>
       <c r="I19" s="7">
-        <f>(G19-C19)/C19</f>
+        <f t="shared" si="2"/>
         <v>0.0752</v>
       </c>
       <c r="J19" s="21">
-        <f>H19-C19*F19</f>
+        <f t="shared" si="1"/>
         <v>75.2</v>
       </c>
     </row>
@@ -3020,15 +3020,15 @@
         <v>125</v>
       </c>
       <c r="H20" s="21">
-        <f>F20*G20</f>
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="I20" s="7">
-        <f>(G20-C20)/C20</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="J20" s="21">
-        <f>H20-C20*F20</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -3055,15 +3055,15 @@
         <v>117.02</v>
       </c>
       <c r="H21" s="21">
-        <f>F21*G21</f>
+        <f t="shared" si="0"/>
         <v>1170.2</v>
       </c>
       <c r="I21" s="7">
-        <f>(G21-C21)/C21</f>
+        <f t="shared" si="2"/>
         <v>0.1702</v>
       </c>
       <c r="J21" s="21">
-        <f>H21-C21*F21</f>
+        <f t="shared" si="1"/>
         <v>170.2</v>
       </c>
     </row>
@@ -3090,15 +3090,15 @@
         <v>113.1</v>
       </c>
       <c r="H22" s="21">
-        <f>F22*G22</f>
+        <f t="shared" si="0"/>
         <v>1131</v>
       </c>
       <c r="I22" s="7">
-        <f>(G22-C22)/C22</f>
+        <f t="shared" si="2"/>
         <v>0.131</v>
       </c>
       <c r="J22" s="21">
-        <f>H22-C22*F22</f>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
     </row>
@@ -3125,15 +3125,15 @@
         <v>116.78</v>
       </c>
       <c r="H23" s="21">
-        <f>F23*G23</f>
+        <f t="shared" si="0"/>
         <v>1167.8</v>
       </c>
       <c r="I23" s="7">
-        <f>(G23-C23)/C23</f>
+        <f t="shared" si="2"/>
         <v>0.1678</v>
       </c>
       <c r="J23" s="21">
-        <f>H23-C23*F23</f>
+        <f t="shared" si="1"/>
         <v>167.8</v>
       </c>
     </row>
@@ -3160,15 +3160,15 @@
         <v>116.57</v>
       </c>
       <c r="H24" s="21">
-        <f>F24*G24</f>
+        <f t="shared" si="0"/>
         <v>1165.7</v>
       </c>
       <c r="I24" s="7">
-        <f>(G24-C24)/C24</f>
+        <f t="shared" si="2"/>
         <v>0.1657</v>
       </c>
       <c r="J24" s="21">
-        <f>H24-C24*F24</f>
+        <f t="shared" si="1"/>
         <v>165.7</v>
       </c>
     </row>
@@ -3195,15 +3195,15 @@
         <v>115.05</v>
       </c>
       <c r="H25" s="21">
-        <f>F25*G25</f>
+        <f t="shared" si="0"/>
         <v>1150.5</v>
       </c>
       <c r="I25" s="7">
-        <f>(G25-C25)/C25</f>
+        <f t="shared" si="2"/>
         <v>0.1505</v>
       </c>
       <c r="J25" s="21">
-        <f>H25-C25*F25</f>
+        <f t="shared" si="1"/>
         <v>150.5</v>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
   <sheetPr/>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B17" sqref="$A17:$XFD18"/>
     </sheetView>
   </sheetViews>
@@ -4643,10 +4643,10 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4655,7 +4655,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="11.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="12.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.7777777777778"/>
+    <col min="10" max="10" width="11.8888888888889"/>
     <col min="11" max="11" width="12.1111111111111" customWidth="1"/>
     <col min="12" max="12" width="15.2222222222222" customWidth="1"/>
   </cols>
@@ -4788,44 +4788,74 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:12">
       <c r="B8" s="2">
         <v>43868</v>
       </c>
       <c r="C8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="J8" s="2">
+        <v>44055</v>
+      </c>
+      <c r="L8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="2">
         <v>43874</v>
       </c>
       <c r="C9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="J9" s="2">
+        <v>44097</v>
+      </c>
+      <c r="K9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="2">
         <v>43875</v>
       </c>
       <c r="C10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="J10" s="2">
+        <v>44124</v>
+      </c>
+      <c r="K10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="2">
         <v>43887</v>
       </c>
       <c r="D11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="J11" s="2">
+        <v>44152</v>
+      </c>
+      <c r="K11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="2">
         <v>43900</v>
       </c>
       <c r="D12">
         <v>10000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44224</v>
+      </c>
+      <c r="K12">
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -4868,40 +4898,64 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2">
+        <v>44216</v>
+      </c>
+      <c r="C18">
+        <v>12870.34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2">
+        <v>44224</v>
+      </c>
+      <c r="D19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2">
+        <v>44235</v>
+      </c>
+      <c r="C20">
+        <v>12869.09</v>
+      </c>
+    </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="12">
         <f>SUM(C2:C29)</f>
-        <v>90000</v>
+        <v>115739.43</v>
       </c>
       <c r="D30" s="8">
         <f>SUM(D2:D29)</f>
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="E30" s="13">
         <f>C30-D30</f>
-        <v>5000</v>
+        <v>15739.43</v>
       </c>
       <c r="G30" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="5">
         <f>E30+M30</f>
-        <v>40000</v>
+        <v>85739.43</v>
       </c>
       <c r="K30" s="12">
         <f>SUM(K2:K12)</f>
-        <v>70000</v>
+        <v>115000</v>
       </c>
       <c r="L30" s="8">
         <f>SUM(L2:L11)</f>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M30" s="13">
         <f>K30-L30</f>
-        <v>35000</v>
+        <v>70000</v>
       </c>
     </row>
   </sheetData>
@@ -5365,7 +5419,7 @@
   <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
